--- a/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1819,6 +1817,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3400,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8228851271405161</v>
+        <v>0.7936625062318284</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8297805432187766</v>
+        <v>0.8213858579245764</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.903684777021516</v>
+        <v>0.9144480233666121</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.28887915743142856</v>
+        <v>0.26130742961696224</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.874769071113076</v>
+        <v>4.598660824839551</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.029437779225691168</v>
+        <v>0.03207085222096662</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4664502164502164</v>
+        <v>1.8851148851148851</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8067310648613821</v>
+        <v>0.6770269722238234</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.260189443639696</v>
+        <v>0.18889771475078998</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8052512671241571</v>
+        <v>0.7952824918496099</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8106784149561521</v>
+        <v>0.8207537584291906</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8843788802618238</v>
+        <v>0.9090352864611501</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.28019976968994215</v>
+        <v>0.2761891736657415</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>4.282017894411745</v>
+        <v>4.578917533983329</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03234324676529503</v>
+        <v>0.032629948514457566</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03728652513905652</v>
+        <v>0.052315912507721773</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.24921503335010362</v>
+        <v>0.21840570572805967</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.803949276774079</v>
+        <v>0.7729708260579582</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8110317697792077</v>
+        <v>0.8023103484399938</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8823511354934253</v>
+        <v>0.8988029552733043</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.28066468385106597</v>
+        <v>0.25272911371554535</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.291894827144169</v>
+        <v>4.05843372229559</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03259176411127712</v>
+        <v>0.035010263909174465</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03808939683575957</v>
+        <v>0.054839213210826424</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.24921503335010362</v>
+        <v>0.18174817565386484</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.802097025287163</v>
+        <v>0.7708968447320498</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8050156493067827</v>
+        <v>0.7992779258645358</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.885257772684803</v>
+        <v>0.9019505729831653</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2729011377773041</v>
+        <v>0.24915591450230473</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.128616714340174</v>
+        <v>3.98201308604013</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03300010191610356</v>
+        <v>0.03534973894535142</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0379402513153018</v>
+        <v>0.056109266716504035</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.24795358263964248</v>
+        <v>0.17551685219157775</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8043992999553894</v>
+        <v>0.7802805963967695</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8113627283819638</v>
+        <v>0.8008157132961474</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8846401169848108</v>
+        <v>0.8972985004251923</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2811011633506806</v>
+        <v>0.2509586019526551</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.301179302597518</v>
+        <v>4.02047634654435</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.032675588249950434</v>
+        <v>0.034797037867013075</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03674628477172067</v>
+        <v>0.04377639958761021</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.24921503335010362</v>
+        <v>0.18889771475078998</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7994214690952524</v>
+        <v>0.7594957764560616</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8126540059068489</v>
+        <v>0.7995829606826471</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8689838013315208</v>
+        <v>0.8962447904090861</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2828137585392628</v>
+        <v>0.24951198165972416</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.337717546833617</v>
+        <v>3.989595712051897</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.033792432318777696</v>
+        <v>0.03796893721448534</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03145284963984798</v>
+        <v>0.043528605674908225</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.24921503335010362</v>
+        <v>0.18520542916066146</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7990342546153026</v>
+        <v>0.7595735130441843</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8106704647920127</v>
+        <v>0.7980271011190763</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8679751228231407</v>
+        <v>0.8951039633140697</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.28018932260381024</v>
+        <v>0.24770358305598286</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.281796096427601</v>
+        <v>3.951159316624781</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.034080944134902875</v>
+        <v>0.0382884125503548</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03182410219604681</v>
+        <v>0.04451383628546267</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24921503335010362</v>
+        <v>0.18520542916066146</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8252984188241608</v>
+        <v>0.7928176647867893</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8355872683148903</v>
+        <v>0.8147972136121086</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8957041709321267</v>
+        <v>0.904217256902389</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.31601627614134503</v>
+        <v>0.2682697850229231</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>5.08225403075987</v>
+        <v>4.399486797707167</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.029186786334478382</v>
+        <v>0.032889079864156984</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03425776899278185</v>
+        <v>0.05623140122901027</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3133352318645897</v>
+        <v>0.19844179775232446</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8224567761741318</v>
+        <v>0.7910691699893059</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8264582170173728</v>
+        <v>0.8192850661461458</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8939156260152193</v>
+        <v>0.904738648100849</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.30213234994884164</v>
+        <v>0.27420424472298444</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.762301059797838</v>
+        <v>4.533576991532476</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.029206370001989872</v>
+        <v>0.03199301060971286</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03893494587932389</v>
+        <v>0.05299289599481284</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3133352318645897</v>
+        <v>0.21840570572805967</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8273262325160246</v>
+        <v>0.7904790247821843</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8337972339554337</v>
+        <v>0.8146340700515358</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9084680198022622</v>
+        <v>0.9114931142335443</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3132188468003535</v>
+        <v>0.2680576857874576</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>5.0167470361585655</v>
+        <v>4.394734621826254</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.028802107994644287</v>
+        <v>0.03173778330355517</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03666360274509838</v>
+        <v>0.0575723401144785</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2880191393316052</v>
+        <v>0.19384033851602245</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.82412989248683</v>
+        <v>0.7967154402063421</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8321774840296805</v>
+        <v>0.8248593695132389</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9108813813684514</v>
+        <v>0.9206409489239467</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.31071976193439366</v>
+        <v>0.28185413995875574</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.958676010892699</v>
+        <v>4.70969738558518</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.029375927918497483</v>
+        <v>0.031164748458879968</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.039994805184608</v>
+        <v>0.056715550808530434</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3133352318645897</v>
+        <v>0.193499173987092</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7983035144607694</v>
+        <v>0.7920636328166565</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8043555742813303</v>
+        <v>0.8219207179384465</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8825094560362557</v>
+        <v>0.9218333359882437</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.27206857437817594</v>
+        <v>0.2777817659623747</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.111313528748153</v>
+        <v>4.615476367735735</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03348307279073589</v>
+        <v>0.03198591489691827</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03747879626232541</v>
+        <v>0.060015324980552974</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.24508341566165043</v>
+        <v>0.19618261885625815</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8003509424013623</v>
+        <v>0.761531651563681</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8062940471420345</v>
+        <v>0.7978670923099093</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.884244650116181</v>
+        <v>0.8965041802729351</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2745242441619673</v>
+        <v>0.2475186914329765</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.162463957590642</v>
+        <v>3.9472399691256386</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.033212437414155305</v>
+        <v>0.03691930466176708</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.037089850837898064</v>
+        <v>0.05631263170048164</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.24508341566165043</v>
+        <v>0.18174817565386484</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7666733900014405</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8025895659851916</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9010968062277153</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.25306190358108355</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.065588376777425</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03620554058230426</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05637286579792109</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.18174817565386484</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>77.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.62947881872054</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6574540663722758</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6376891295088521</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5473096385301249</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.324675324675325</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.174751468022049</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6410294587128359</v>
+        <v>0.32142081583017934</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6538426485450457</v>
+        <v>0.43007717560611314</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6362566828856928</v>
+        <v>0.39566621896484</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5483119513690439</v>
+        <v>0.29838818432936676</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.779220779220779</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.334002452291763</v>
+        <v>0.2233774181740458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6888231870903812</v>
+        <v>0.6049135517882857</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7141492837000812</v>
+        <v>0.6412448477622937</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.691093343389591</v>
+        <v>0.6288650699994782</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6274286412443117</v>
+        <v>0.5094530978681043</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3766233766233764</v>
+        <v>3.324675324675325</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0135783541358108</v>
+        <v>1.174751468022049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6364387353824608</v>
+        <v>0.6260218121701143</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6504521090047611</v>
+        <v>0.6734077732455258</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6286254069021535</v>
+        <v>0.65678015802068</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5479001670233813</v>
+        <v>0.5197787847190632</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8701298701298703</v>
+        <v>3.779220779220779</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.270626133992808</v>
+        <v>1.334002452291763</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6989477358084846</v>
+        <v>0.7063929467963734</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6371487998951326</v>
+        <v>0.6571815013040313</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6626901154433478</v>
+        <v>0.6818618150759777</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5879058852811065</v>
+        <v>0.6790392795739081</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.0649350649350648</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7346140351649166</v>
+        <v>0.45471630418672376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.720535734196831</v>
+        <v>0.7269467484949537</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6575352185424058</v>
+        <v>0.6702027570212219</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6842109191371588</v>
+        <v>0.6965690203080916</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6003733692206794</v>
+        <v>0.6108948990247661</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.1688311688311688</v>
+        <v>1.0649350649350648</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.9358297378004512</v>
+        <v>1.7346140351649166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3717010845107636</v>
+        <v>0.744018260487836</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.379234169617531</v>
+        <v>0.6864804359484378</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3243653334107529</v>
+        <v>0.7113102352368603</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.25967471505686024</v>
+        <v>0.6171580676164974</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.844155844155844</v>
+        <v>1.1688311688311688</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1817130191393994</v>
+        <v>1.9358297378004512</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.504961005813428</v>
+        <v>0.4213282872097885</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.48708345182125357</v>
+        <v>0.5013608325172318</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.43674370004595314</v>
+        <v>0.4706212042303589</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3590729497839042</v>
+        <v>0.395628167491388</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.961038961038961</v>
+        <v>0.922077922077922</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6736468095745012</v>
+        <v>0.26980664452011627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.37128187204055935</v>
+        <v>0.4125213772133514</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4009643878755674</v>
+        <v>0.44794383174967245</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.31397662163624684</v>
+        <v>0.41826685910484923</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2471903588070547</v>
+        <v>0.29213328243322756</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2077922077922079</v>
+        <v>2.844155844155844</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.301190369356807</v>
+        <v>1.1817130191393994</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.39717625940590395</v>
+        <v>0.5167628181949085</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.42037708895327025</v>
+        <v>0.5032699709386357</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.31877407183609563</v>
+        <v>0.4549678979635521</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2822134560742733</v>
+        <v>0.3564342853965118</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.220779220779221</v>
+        <v>2.961038961038961</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2314238295500033</v>
+        <v>1.6736468095745012</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.703030600261233</v>
+        <v>0.3767319907802388</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7206165728328587</v>
+        <v>0.3790859271831084</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7089080613941802</v>
+        <v>0.29135031414065327</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6276380178171944</v>
+        <v>0.2398829284093532</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.948051948051948</v>
+        <v>1.2077922077922079</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2554733212712195</v>
+        <v>1.301190369356807</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>77.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6836179425164935</v>
+        <v>0.4108152448420602</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7015411168098884</v>
+        <v>0.4157420030324777</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6874592366977296</v>
+        <v>0.31754786012208386</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6072141505527828</v>
+        <v>0.2848260506722542</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.220779220779221</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2314238295500033</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>77.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.7085418712330743</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6881446743908937</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6731247087063036</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.6256122849295589</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2554733212712195</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>77.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6645772792498679</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6382493540861452</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6147978153283963</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5757371299939882</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.8311688311688312</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2183098452428762</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.33766233766233766</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4805194805194805</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2987012987012987</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.012987012987012988</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06493506493506493</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03896103896103896</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.37662337662337664</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.42857142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07792207792207792</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.012987012987012988</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.025974025974025976</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.11688311688311688</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.23376623376623376</v>
+        <v>0.33766233766233766</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.14285714285714285</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4675324675324675</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7142857142857143</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.11688311688311688</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.12987012987012986</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03896103896103896</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7142857142857143</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.012987012987012988</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05194805194805195</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.1038961038961039</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11688311688311688</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.07792207792207792</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.025974025974025976</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5324675324675324</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2597402597402597</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.012987012987012988</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.07792207792207792</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.12987012987012986</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.24675324675324675</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.14285714285714285</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F50" t="n" s="113">
         <v>0.1038961038961039</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2987012987012987</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.45454545454545453</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.16883116883116883</v>
+        <v>0.922077922077922</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.1038961038961039</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2597402597402597</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.012987012987012988</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.15584415584415584</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.12987012987012986</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.11688311688311688</v>
+        <v>0.025974025974025976</v>
       </c>
       <c r="E52" t="n" s="112">
         <v>0.5324675324675324</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.06493506493506493</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18181818181818182</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C53" t="n" s="110">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.33766233766233766</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.22077922077922077</v>
-      </c>
       <c r="F53" t="n" s="113">
-        <v>0.11688311688311688</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2077922077922078</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.12987012987012986</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.36363636363636365</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.22077922077922077</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.07792207792207792</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5324675324675324</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.33766233766233766</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8228146945158719</v>
+        <v>0.8745830348920495</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8259812847116766</v>
+        <v>0.989388677750668</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8373595002841823</v>
+        <v>0.9848990314632831</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.542674648997445</v>
+        <v>0.9688275941397443</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.746508347353026</v>
+        <v>93.23896254427217</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03347044346889377</v>
+        <v>0.003729016272071525</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5876623376623376</v>
+        <v>0.8398268398268398</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9731309968937975</v>
+        <v>1.3621989335384546</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5017028090029229</v>
+        <v>0.9684724672370552</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7608836412111979</v>
+        <v>0.9809793814432988</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7709072381089676</v>
+        <v>0.9839837573104606</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7192973909271942</v>
+        <v>0.9684724672370552</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5286756901203363</v>
+        <v>0.968472467237055</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.3650440622635105</v>
+        <v>61.43661633905736</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04718357618533776</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.021116215808859508</v>
-      </c>
+        <v>0.003965968143438697</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5107242231214814</v>
+        <v>0.9684724672370552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7685837407806414</v>
+        <v>0.599273607748184</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7762768080848684</v>
+        <v>0.9800774442173474</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.718812181686538</v>
+        <v>0.9609331989577095</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5363078154443747</v>
+        <v>0.9609331989577097</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.469809282800441</v>
+        <v>49.194363158503144</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04603245618288417</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.01680607359232002</v>
-      </c>
+        <v>0.01245219431974467</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.4926813948843644</v>
+        <v>0.9609331989577096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7931383463212226</v>
+        <v>0.6480350599899418</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.794242447547513</v>
+        <v>0.988405670377033</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7521804140993177</v>
+        <v>0.9770771162244682</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5626878839535925</v>
+        <v>0.9770771162244682</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.8600889157199574</v>
+        <v>85.24905729944987</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04140482010148253</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.025913735570309245</v>
-      </c>
+        <v>0.00954597804928386</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5107242231214814</v>
+        <v>0.9770771162244682</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.782476279723556</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7809391784350255</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7439565812221126</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5430272064714762</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.564942251453188</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.041703019845419805</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.03253613286519025</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.4926813948843644</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>77.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9812005543112071</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9896742704909538</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9830252439049441</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9762647097509746</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.45471630418672376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>77.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8265033277313273</v>
+        <v>0.9919512323965952</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8235121169700893</v>
+        <v>0.9922138871137546</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7676684011852848</v>
+        <v>0.9882819477330181</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6818343474678409</v>
+        <v>0.9760001248733728</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.324675324675325</v>
+        <v>1.0649350649350648</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.174751468022049</v>
+        <v>1.7346140351649166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>77.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8361056238499894</v>
+        <v>0.9917072475392622</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8164502083583993</v>
+        <v>0.9867757783837466</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7606454893628144</v>
+        <v>0.9748566274883048</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6687289155200485</v>
+        <v>0.9705746812986749</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.779220779220779</v>
+        <v>1.1688311688311688</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.334002452291763</v>
+        <v>1.9358297378004512</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>77.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7664903801915642</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7920410660719824</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7069186294091919</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6189323117940162</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3766233766233764</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0135783541358108</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>77.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8100911447152817</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8102328411972306</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7316519193078219</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6363540395378842</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8701298701298703</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.270626133992808</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.05194805194805195</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.33766233766233766</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4805194805194805</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2987012987012987</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.37662337662337664</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.23376623376623376</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4675324675324675</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,65 +5820,65 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.7392732498460275</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.7671531745879232</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.6222615484543293</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.6222615484543295</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>3.294668815992088</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.054117221971945885</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.9025974025974026</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.2902441655885408</v>
-      </c>
-      <c r="I6" t="n" s="269">
+      <c r="A6" t="n" s="260">
+        <v>0.6624960900844543</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.827192440818908</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7746367756671446</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6147318274973942</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>4.786783892665593</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.039516231846529054</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.2424242424242427</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.9218535289086316</v>
+      </c>
+      <c r="I6" t="n" s="268">
         <v>0.6222615484543296</v>
       </c>
     </row>
@@ -5908,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.7392732498460275</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.7671531745879232</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.6222615484543293</v>
+      </c>
+      <c r="E11" t="n" s="290">
         <v>0.6222615484543295</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6222615484543295</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.38720943468477964</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.6222615484543295</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6222615484543295</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.6222615484543295</v>
+      <c r="F11" t="n" s="291">
+        <v>3.294668815992088</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.054117221971945885</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.6222615484543296</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.38720943468477964</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.6222615484543295</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.38720943468477964</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.6222615484543295</v>
+      <c r="B12" t="n" s="287">
+        <v>0.27984044185332935</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6822032222933325</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5176846945099955</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5176846945099953</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.146665007796331</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.04472707047706492</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5176846945099954</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.46819882415820424</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8264627299736531</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7042492395278581</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7042492395278579</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>4.762450912407333</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.03922497770934798</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7042492395278579</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>77.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8615264977450178</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9006279888095666</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7104473883191876</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6222615484543296</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.7117719591353548</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.859152614251477</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7592504683060761</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6582637138399557</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.922077922077922</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.26980664452011627</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>77.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.8725790388525342</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8995892249355726</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8405195416515522</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.6736800217411401</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.844155844155844</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.1817130191393994</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>77.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9215694515140973</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8274505289449818</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.6764271720801563</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.6317602986167213</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.961038961038961</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.6736468095745012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.922077922077922</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>77.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9335370183960394</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9006279888095666</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7104473883191876</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6222615484543296</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.961038961038961</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6736468095745012</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.07792207792207792</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.025974025974025976</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.5324675324675324</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.2597402597402597</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.012987012987012988</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.07792207792207792</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.12987012987012986</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.24675324675324675</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.1038961038961039</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2987012987012987</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8742928975487114</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8745150259416916</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7770117292533357</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>6.969081617177021</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.02861871159743744</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.8896103896103895</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.1659178015154565</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7770117292533356</v>
+      <c r="A6" t="n" s="375">
+        <v>0.734221255776026</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8710786738329244</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8212775498375792</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6925179967593581</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>6.756668580216504</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.02446231335370928</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.683982683982684</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8357790494976834</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6675023022138415</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6037472273972592</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7770117292533356</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8487640869186226</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8527037963001907</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.7432289879025008</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7432289879025009</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>5.7890412304040595</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.03386075794178108</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.7432289879025009</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6037472273972592</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7770117292533356</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6037472273972592</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7770117292533356</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.3572195795611477</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8006013560852532</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.6675023022138413</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.6675023022138415</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>4.01507924210132</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.03640792992059984</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.6675023022138415</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.3932411674347158</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.8001123335997644</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.6668227001617317</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.666822700161732</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>4.002809918235265</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.039011594128326235</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.6668227001617318</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>77.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9443694735715712</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9426058904052466</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8308907740041993</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7770117292533357</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2554733212712195</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.7566505658416791</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8726763882624206</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7611003293520769</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.7144216434445909</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.2233774181740458</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>77.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9408156127231804</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9426058904052466</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8308907740041992</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7770117292533357</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.8311688311688312</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.2183098452428762</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9233596267784491</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9009864524114188</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8312336988348105</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.7641507597108329</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.324675324675325</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.174751468022049</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>77.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9397287234453695</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9012405184320832</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8317801504553775</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.766202595946578</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.779220779220779</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.334002452291763</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.948051948051948</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="456">
         <v>0.33766233766233766</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="F26" t="n" s="457">
+        <v>0.4805194805194805</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="H26" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.12987012987012986</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="G24" t="n" s="459">
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9809793814432988</v>
+        <v>0.4101912984594549</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9839837573104606</v>
+        <v>0.4106863860372836</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796053</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.968472467237055</v>
+        <v>0.25840487517960553</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>61.43661633905736</v>
+        <v>0.6968893579018285</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.003965968143438697</v>
+        <v>0.13421145807443072</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.1168831168831168</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.8207432401865162</v>
+        <v>1.0046882582376493</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9379389197962288</v>
+        <v>0.06677307951658729</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9379389197962288</v>
+        <v>0.06677307951658729</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9379389197962288</v>
+        <v>0.06677307951658729</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9684724672370552</v>
+        <v>0.2584048751796056</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>77.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9911918819244482</v>
+        <v>0.8059197850910959</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9920868075015046</v>
+        <v>0.7932228171137052</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9763225355980687</v>
+        <v>0.40322323512924746</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9684724672370555</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.0649350649350648</v>
+        <v>1.2077922077922079</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.7346140351649166</v>
+        <v>1.301190369356807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>77.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9929339822154839</v>
+        <v>0.7801712380308019</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9920868075015046</v>
+        <v>0.7932228171137052</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9763225355980687</v>
+        <v>0.4032232351292476</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9684724672370553</v>
+        <v>0.2584048751796056</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.1688311688311688</v>
+        <v>2.220779220779221</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.9358297378004512</v>
+        <v>1.2314238295500033</v>
       </c>
     </row>
     <row r="19">
@@ -6825,16 +6993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="567">
         <v>40</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.7142857142857143</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.11688311688311688</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.12987012987012986</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.03896103896103896</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.7142857142857143</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.012987012987012988</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.05194805194805195</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.1038961038961039</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.11688311688311688</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.4101912984594549</v>
+        <v>0.8742928975487114</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.4106863860372836</v>
+        <v>0.8745150259416916</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.2584048751796053</v>
+        <v>0.7770117292533357</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.25840487517960553</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>0.6968893579018285</v>
+        <v>6.969081617177021</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.13421145807443072</v>
+        <v>0.02861871159743744</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>1.7142857142857142</v>
+        <v>1.8896103896103895</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.0046882582376493</v>
+        <v>1.1659178015154565</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.06677307951658729</v>
+        <v>0.6037472273972592</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.06677307951658729</v>
+        <v>0.6037472273972592</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.06677307951658729</v>
+        <v>0.6037472273972592</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533356</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>77.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.8059197850910959</v>
+        <v>0.9443694735715712</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.7932228171137052</v>
+        <v>0.9426058904052466</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.40322323512924746</v>
+        <v>0.8308907740041993</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533357</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>1.2077922077922079</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.301190369356807</v>
+        <v>1.2554733212712195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>77.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.7801712380308019</v>
+        <v>0.9408156127231804</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.7932228171137052</v>
+        <v>0.9426058904052466</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.4032232351292476</v>
+        <v>0.8308907740041992</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.2584048751796056</v>
+        <v>0.7770117292533357</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.220779220779221</v>
+        <v>1.8311688311688312</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.2314238295500033</v>
+        <v>1.2183098452428762</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.16883116883116883</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.1038961038961039</v>
+        <v>0.33766233766233766</v>
       </c>
       <c r="E23" t="n" s="685">
-        <v>0.2597402597402597</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.012987012987012988</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.15584415584415584</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C24" t="n" s="683">
         <v>0.12987012987012986</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.11688311688311688</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.5324675324675324</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.06493506493506493</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8340612869012111</v>
+        <v>0.8030550128989007</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8408257988590355</v>
+        <v>0.8273071780862787</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9037686736328016</v>
+        <v>0.9093138533431186</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.3456535909542291</v>
+        <v>0.32389621527662593</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>5.282425121860047</v>
+        <v>4.790628637127762</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.02789093999007561</v>
+        <v>0.03074069860150738</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.379220779220779</v>
+        <v>1.777922077922078</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.8689584906713963</v>
+        <v>0.7701030991509781</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.3461285269377519</v>
+        <v>0.2880191393316052</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.8158337774332639</v>
+        <v>0.7880057821692277</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.8211848450748425</v>
+        <v>0.8015811596512561</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.8816881600321622</v>
+        <v>0.8865602248941791</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.33786367786571364</v>
+        <v>0.3098076934799575</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>4.592367159363794</v>
+        <v>4.039843989826695</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.030833522599948208</v>
+        <v>0.03424279531550016</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.03813263633007778</v>
+        <v>0.05100359166524248</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.3459707584490181</v>
+        <v>0.28405318092201803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.8172896081678309</v>
+        <v>0.7630955985857859</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8243307673463103</v>
+        <v>0.8009060709191275</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.8823206485982097</v>
+        <v>0.8838879202337873</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.34270665145499485</v>
+        <v>0.3089019876083802</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.692516469126823</v>
+        <v>4.022754860565323</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.030691012152499832</v>
+        <v>0.037571143210195924</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.037803637418547274</v>
+        <v>0.050208176663888486</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.35075694568779453</v>
+        <v>0.2781197553321534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.8134282227575096</v>
+        <v>0.7649061619460409</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8166428915796057</v>
+        <v>0.7986263785951384</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.8849164208025191</v>
+        <v>0.8855904886962138</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.33104591611450984</v>
+        <v>0.3058712186808651</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.453838188303216</v>
+        <v>3.9658937105247776</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.03153618490488719</v>
+        <v>0.037644677549643964</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.03905310577452699</v>
+        <v>0.052579698930804775</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.32841722285083963</v>
+        <v>0.27415379692256614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.8153915611629902</v>
+        <v>0.8079594126944024</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8219772622554202</v>
+        <v>0.829910068760961</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.8851162682564094</v>
+        <v>0.9046844966702777</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.3390740858150845</v>
+        <v>0.35154963830699476</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>4.617259978524548</v>
+        <v>4.87924277889578</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.031178678967011295</v>
+        <v>0.03143044468070955</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.0379319229409918</v>
+        <v>0.06258682374938611</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.34262549390410324</v>
+        <v>0.31425428607043404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.807803161481316</v>
+        <v>0.7800184729064038</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8140476642401875</v>
+        <v>0.802065350798645</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.8788519745896974</v>
+        <v>0.8918095588877734</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.3272397288201183</v>
+        <v>0.31045962115795767</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>4.377722177642671</v>
+        <v>4.052172542982709</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.032190750428820414</v>
+        <v>0.03366615480249691</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.039147513406575914</v>
+        <v>0.0721621667783728</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.329574110912437</v>
+        <v>0.2844011779775558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.8094214154233943</v>
+        <v>0.7824622099212263</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8155578650328037</v>
+        <v>0.8044703102257378</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.8809498741517892</v>
+        <v>0.8939786040495625</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.3294468387115656</v>
+        <v>0.31372690888334637</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.421754634199248</v>
+        <v>4.114312824586864</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.03203519258714109</v>
+        <v>0.03340221531848082</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.038686689969051696</v>
+        <v>0.07211137855425924</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.32841722285083963</v>
+        <v>0.2737602470294658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8101159232741523</v>
+        <v>0.8082136588739618</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8240697211979807</v>
+        <v>0.8328901816231941</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.861910819047055</v>
+        <v>0.9184300972894053</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.3423009328267583</v>
+        <v>0.35641141157604395</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.684069887283797</v>
+        <v>4.984088844768889</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.03236638397343493</v>
+        <v>0.028990916066049022</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.028568747640216635</v>
+        <v>0.07248124463352885</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.3459707584490181</v>
+        <v>0.31425428607043404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.810985773386301</v>
+        <v>0.8104344597103602</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8217056278258785</v>
+        <v>0.8375416612286364</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8617372245868455</v>
+        <v>0.9228276788505263</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3386584549589569</v>
+        <v>0.3642013242720687</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.608701989894581</v>
+        <v>5.155424261769379</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.03243743226639571</v>
+        <v>0.029299009334892004</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.029722016725882806</v>
+        <v>0.07172688274326347</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.3427832623928371</v>
+        <v>0.33049316511828136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.8407909057927198</v>
+        <v>0.7654116760967007</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8468984736383265</v>
+        <v>0.7984150104151184</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9104720239514833</v>
+        <v>0.8844465363192373</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.38066065508434466</v>
+        <v>0.30559235569505755</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>5.531613523157751</v>
+        <v>3.9606868153192973</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.02673743426715933</v>
+        <v>0.03618881191963426</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.035308757709785775</v>
+        <v>0.07411674122975524</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.3933147826535299</v>
+        <v>0.26470364182314354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.842256824880174</v>
+        <v>0.7710961252344912</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8506306177482419</v>
+        <v>0.8035273358257932</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9152932589460824</v>
+        <v>0.8911887815507584</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.3875389678902443</v>
+        <v>0.31243999310558784</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>5.69481245034894</v>
+        <v>4.089766580013023</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.02691506126165133</v>
+        <v>0.03551177558423127</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.03454406059371266</v>
+        <v>0.07422324603022998</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.39382165497038785</v>
+        <v>0.2737602470294658</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.6563346679583323</v>
+        <v>0.758474757853495</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.6849005001657394</v>
+        <v>0.7067633450000222</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.6594754805460341</v>
+        <v>0.7343208226969974</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.5683387230516288</v>
+        <v>0.7316277155763159</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.324675324675325</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.174751468022049</v>
+        <v>0.45471630418672376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.645262481598096</v>
+        <v>0.7693845917814873</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.6577081290242319</v>
+        <v>0.7119743338460988</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.6306830917079248</v>
+        <v>0.7414885454179968</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.5412460726284588</v>
+        <v>0.6484590661144174</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>3.779220779220779</v>
+        <v>1.0649350649350648</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>1.334002452291763</v>
+        <v>1.7346140351649166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.696209864122073</v>
+        <v>0.7845284395787007</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.7231809294258584</v>
+        <v>0.7294118967149488</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.6907865395959877</v>
+        <v>0.7560997514607714</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.6281891720035848</v>
+        <v>0.6519519585923104</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.3766233766233764</v>
+        <v>1.1688311688311688</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>1.0135783541358108</v>
+        <v>1.9358297378004512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.6601129737703489</v>
+        <v>0.34509396031188083</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.6781042908564898</v>
+        <v>0.4666005993081854</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6461419870174555</v>
+        <v>0.4191150011222513</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.564633794503964</v>
+        <v>0.31916311717219636</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.8701298701298703</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.270626133992808</v>
+        <v>0.2233774181740458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.7286822734466574</v>
+        <v>0.6392484283417074</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.7445519436664182</v>
+        <v>0.703012471824616</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.7287405336068304</v>
+        <v>0.6804082430827156</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.6489875264656909</v>
+        <v>0.5347934219066485</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>1.948051948051948</v>
+        <v>3.324675324675325</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.2554733212712195</v>
+        <v>1.174751468022049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.7162708279599329</v>
+        <v>0.6291882471679565</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.7321594434365684</v>
+        <v>0.6842140954110112</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.7140672466160795</v>
+        <v>0.6580270038311603</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.6366222058370032</v>
+        <v>0.5059947737626843</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>1.8311688311688312</v>
+        <v>3.779220779220779</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.2183098452428762</v>
+        <v>1.334002452291763</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.7298120629000631</v>
+        <v>0.43008178885004916</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.6599861615830818</v>
+        <v>0.4386283325136171</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.6854788487358455</v>
+        <v>0.3336360740569949</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.6128352844550151</v>
+        <v>0.27784671247278797</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>1.0649350649350648</v>
+        <v>1.2077922077922079</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>1.7346140351649166</v>
+        <v>1.301190369356807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.7499003135502599</v>
+        <v>0.39231741198775083</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.6804379786805778</v>
+        <v>0.3938089828276096</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.7068956956099994</v>
+        <v>0.26954897199806593</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.6231683657056549</v>
+        <v>0.24497145918196803</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.1688311688311688</v>
+        <v>2.220779220779221</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>1.9358297378004512</v>
+        <v>1.2314238295500033</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.4146602779603216</v>
+        <v>0.7432170275547174</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.4446036522045336</v>
+        <v>0.7310163380178364</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.34611887290586557</v>
+        <v>0.7114327663706315</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.27952266445304275</v>
+        <v>0.6551540697288828</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>1.2077922077922079</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.301190369356807</v>
+        <v>1.2554733212712195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>77.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.3806151167317024</v>
+        <v>0.7056021319844076</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.4059832403444794</v>
+        <v>0.691618379709246</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.2869268395068769</v>
+        <v>0.6625162313749007</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.25013479100222186</v>
+        <v>0.6113358558915034</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.220779220779221</v>
+        <v>1.8311688311688312</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.2314238295500033</v>
+        <v>1.2183098452428762</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.05194805194805195</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.06493506493506493</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D39" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.33766233766233766</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.4805194805194805</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.06493506493506493</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8228,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
-        <v>0.05194805194805195</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C40" t="n" s="797">
-        <v>0.012987012987012988</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G40" t="n" s="801">
         <v>0.03896103896103896</v>
-      </c>
-      <c r="E40" t="n" s="799">
-        <v>0.2987012987012987</v>
-      </c>
-      <c r="F40" t="n" s="800">
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="G40" t="n" s="801">
-        <v>0.4025974025974026</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C41" t="n" s="797">
         <v>0.012987012987012988</v>
       </c>
-      <c r="C41" t="n" s="797">
-        <v>0.06493506493506493</v>
-      </c>
       <c r="D41" t="n" s="798">
-        <v>0.03896103896103896</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.37662337662337664</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.42857142857142855</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.07792207792207792</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.012987012987012988</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.025974025974025976</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.11688311688311688</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.23376623376623376</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.14285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.4675324675324675</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.18181818181818182</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C43" t="n" s="797">
-        <v>0.14285714285714285</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="D43" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="799">
         <v>0.33766233766233766</v>
       </c>
-      <c r="E43" t="n" s="799">
-        <v>0.22077922077922077</v>
-      </c>
       <c r="F43" t="n" s="800">
-        <v>0.11688311688311688</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="G43" t="n" s="801">
-        <v>0.0</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.2077922077922078</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.12987012987012986</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.36363636363636365</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.22077922077922077</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.07792207792207792</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.7142857142857143</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C45" t="n" s="797">
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.12987012987012986</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.03896103896103896</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.7142857142857143</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.012987012987012988</v>
+        <v>0.12987012987012986</v>
       </c>
       <c r="D46" t="n" s="798">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.5324675324675324</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="G46" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.1038961038961039</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.11688311688311688</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C47" t="n" s="797">
-        <v>0.16883116883116883</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D47" t="n" s="798">
-        <v>0.1038961038961039</v>
+        <v>0.33766233766233766</v>
       </c>
       <c r="E47" t="n" s="799">
-        <v>0.2597402597402597</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.012987012987012988</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
-        <v>0.15584415584415584</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C48" t="n" s="797">
         <v>0.12987012987012986</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.11688311688311688</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.5324675324675324</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="F48" t="n" s="800">
-        <v>0.06493506493506493</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
